--- a/单周期硬布线控制器表达式自动生成2020-2-14.xlsx
+++ b/单周期硬布线控制器表达式自动生成2020-2-14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tasks\组成原理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C41AFF-502E-4FAA-AB29-2C5C9BAEE0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141CA5A2-95CF-4DC8-BE6F-7DBC48B6FF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
   <si>
     <t>#</t>
   </si>
@@ -863,6 +863,14 @@
   </si>
   <si>
     <t>LB</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1_used</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_used</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -2066,7 +2074,7 @@
   <dimension ref="A1:AR61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC30" sqref="AC30"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -2197,10 +2205,10 @@
         <v>121</v>
       </c>
       <c r="AJ1" s="34" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="AK1" s="34" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="AL1" s="34" t="s">
         <v>33</v>
@@ -2322,8 +2330,12 @@
       <c r="AG2" s="40"/>
       <c r="AH2" s="44"/>
       <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
+      <c r="AJ2" s="44">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="44">
+        <v>1</v>
+      </c>
       <c r="AL2" s="44"/>
       <c r="AM2" s="44"/>
       <c r="AN2" s="44"/>
@@ -2430,8 +2442,12 @@
       <c r="AG3" s="27"/>
       <c r="AH3" s="28"/>
       <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
+      <c r="AJ3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="28">
+        <v>1</v>
+      </c>
       <c r="AL3" s="28"/>
       <c r="AM3" s="28"/>
       <c r="AN3" s="28"/>
@@ -2538,8 +2554,12 @@
       <c r="AG4" s="40"/>
       <c r="AH4" s="44"/>
       <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
+      <c r="AJ4" s="44">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="44">
+        <v>1</v>
+      </c>
       <c r="AL4" s="44"/>
       <c r="AM4" s="44"/>
       <c r="AN4" s="44"/>
@@ -2648,8 +2668,12 @@
       <c r="AG5" s="27"/>
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
+      <c r="AJ5" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="28">
+        <v>1</v>
+      </c>
       <c r="AL5" s="28"/>
       <c r="AM5" s="28"/>
       <c r="AN5" s="28"/>
@@ -2758,8 +2782,12 @@
       <c r="AG6" s="40"/>
       <c r="AH6" s="44"/>
       <c r="AI6" s="44"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="44"/>
+      <c r="AJ6" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="44">
+        <v>1</v>
+      </c>
       <c r="AL6" s="44"/>
       <c r="AM6" s="44"/>
       <c r="AN6" s="44"/>
@@ -2868,8 +2896,12 @@
       <c r="AG7" s="27"/>
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
+      <c r="AJ7" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="44">
+        <v>1</v>
+      </c>
       <c r="AL7" s="28"/>
       <c r="AM7" s="28"/>
       <c r="AN7" s="28"/>
@@ -2978,8 +3010,12 @@
       <c r="AG8" s="40"/>
       <c r="AH8" s="44"/>
       <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
+      <c r="AJ8" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="44">
+        <v>1</v>
+      </c>
       <c r="AL8" s="44"/>
       <c r="AM8" s="44"/>
       <c r="AN8" s="44"/>
@@ -3088,8 +3124,12 @@
       <c r="AG9" s="27"/>
       <c r="AH9" s="28"/>
       <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
+      <c r="AJ9" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="44">
+        <v>1</v>
+      </c>
       <c r="AL9" s="28"/>
       <c r="AM9" s="28"/>
       <c r="AN9" s="28"/>
@@ -3198,8 +3238,12 @@
       <c r="AG10" s="40"/>
       <c r="AH10" s="44"/>
       <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
+      <c r="AJ10" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="44">
+        <v>1</v>
+      </c>
       <c r="AL10" s="44"/>
       <c r="AM10" s="44"/>
       <c r="AN10" s="44"/>
@@ -3308,8 +3352,12 @@
       <c r="AG11" s="27"/>
       <c r="AH11" s="28"/>
       <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
+      <c r="AJ11" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="44">
+        <v>1</v>
+      </c>
       <c r="AL11" s="28"/>
       <c r="AM11" s="28"/>
       <c r="AN11" s="28"/>
@@ -3418,8 +3466,12 @@
       <c r="AG12" s="40"/>
       <c r="AH12" s="44"/>
       <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
+      <c r="AJ12" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="44">
+        <v>1</v>
+      </c>
       <c r="AL12" s="44"/>
       <c r="AM12" s="44"/>
       <c r="AN12" s="44"/>
@@ -3524,8 +3576,12 @@
       <c r="AG13" s="27"/>
       <c r="AH13" s="28"/>
       <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
+      <c r="AJ13" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="44">
+        <v>0</v>
+      </c>
       <c r="AL13" s="28"/>
       <c r="AM13" s="28"/>
       <c r="AN13" s="28"/>
@@ -3628,8 +3684,12 @@
       <c r="AG14" s="40"/>
       <c r="AH14" s="44"/>
       <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="44"/>
+      <c r="AJ14" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="44">
+        <v>1</v>
+      </c>
       <c r="AL14" s="44"/>
       <c r="AM14" s="44"/>
       <c r="AN14" s="44"/>
@@ -3732,8 +3792,12 @@
       <c r="AG15" s="27"/>
       <c r="AH15" s="28"/>
       <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
+      <c r="AJ15" s="44">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="44">
+        <v>0</v>
+      </c>
       <c r="AL15" s="28"/>
       <c r="AM15" s="28"/>
       <c r="AN15" s="28"/>
@@ -3840,8 +3904,12 @@
       </c>
       <c r="AH16" s="44"/>
       <c r="AI16" s="44"/>
-      <c r="AJ16" s="44"/>
-      <c r="AK16" s="44"/>
+      <c r="AJ16" s="44">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="44">
+        <v>0</v>
+      </c>
       <c r="AL16" s="44"/>
       <c r="AM16" s="44"/>
       <c r="AN16" s="44"/>
@@ -3950,8 +4018,12 @@
       <c r="AG17" s="27"/>
       <c r="AH17" s="28"/>
       <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
+      <c r="AJ17" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="44">
+        <v>1</v>
+      </c>
       <c r="AL17" s="28"/>
       <c r="AM17" s="28"/>
       <c r="AN17" s="28"/>
@@ -4060,8 +4132,12 @@
       <c r="AG18" s="40"/>
       <c r="AH18" s="44"/>
       <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="44"/>
+      <c r="AJ18" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="44">
+        <v>1</v>
+      </c>
       <c r="AL18" s="44"/>
       <c r="AM18" s="44"/>
       <c r="AN18" s="44"/>
@@ -4170,8 +4246,12 @@
       <c r="AG19" s="27"/>
       <c r="AH19" s="28"/>
       <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="28"/>
+      <c r="AJ19" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="44">
+        <v>0</v>
+      </c>
       <c r="AL19" s="28"/>
       <c r="AM19" s="28"/>
       <c r="AN19" s="28"/>
@@ -4280,8 +4360,12 @@
       <c r="AG20" s="40"/>
       <c r="AH20" s="44"/>
       <c r="AI20" s="44"/>
-      <c r="AJ20" s="44"/>
-      <c r="AK20" s="44"/>
+      <c r="AJ20" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="44">
+        <v>0</v>
+      </c>
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
       <c r="AN20" s="44"/>
@@ -4390,8 +4474,12 @@
       <c r="AG21" s="27"/>
       <c r="AH21" s="28"/>
       <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
+      <c r="AJ21" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="44">
+        <v>0</v>
+      </c>
       <c r="AL21" s="28"/>
       <c r="AM21" s="28"/>
       <c r="AN21" s="28"/>
@@ -4500,8 +4588,12 @@
       <c r="AG22" s="40"/>
       <c r="AH22" s="44"/>
       <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="44"/>
+      <c r="AJ22" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="44">
+        <v>0</v>
+      </c>
       <c r="AL22" s="44"/>
       <c r="AM22" s="44"/>
       <c r="AN22" s="44"/>
@@ -4610,8 +4702,12 @@
       <c r="AG23" s="27"/>
       <c r="AH23" s="28"/>
       <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
+      <c r="AJ23" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="44">
+        <v>0</v>
+      </c>
       <c r="AL23" s="28"/>
       <c r="AM23" s="28"/>
       <c r="AN23" s="28"/>
@@ -4722,8 +4818,12 @@
       <c r="AG24" s="40"/>
       <c r="AH24" s="44"/>
       <c r="AI24" s="44"/>
-      <c r="AJ24" s="44"/>
-      <c r="AK24" s="44"/>
+      <c r="AJ24" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="44">
+        <v>0</v>
+      </c>
       <c r="AL24" s="44"/>
       <c r="AM24" s="44"/>
       <c r="AN24" s="44"/>
@@ -4832,8 +4932,12 @@
       <c r="AG25" s="27"/>
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
+      <c r="AJ25" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="44">
+        <v>1</v>
+      </c>
       <c r="AL25" s="28"/>
       <c r="AM25" s="28"/>
       <c r="AN25" s="28"/>
@@ -4942,8 +5046,12 @@
       <c r="AG26" s="40"/>
       <c r="AH26" s="44"/>
       <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
+      <c r="AJ26" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="44">
+        <v>1</v>
+      </c>
       <c r="AL26" s="44"/>
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
@@ -5052,8 +5160,12 @@
       <c r="AG27" s="27"/>
       <c r="AH27" s="28"/>
       <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="28"/>
+      <c r="AJ27" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="44">
+        <v>0</v>
+      </c>
       <c r="AL27" s="28"/>
       <c r="AM27" s="28"/>
       <c r="AN27" s="28"/>
@@ -5167,8 +5279,12 @@
       <c r="AI28" s="44">
         <v>1</v>
       </c>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
+      <c r="AJ28" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="44">
+        <v>1</v>
+      </c>
       <c r="AL28" s="44"/>
       <c r="AM28" s="44"/>
       <c r="AN28" s="44"/>
@@ -5273,8 +5389,12 @@
         <v>1</v>
       </c>
       <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AK29" s="28"/>
+      <c r="AJ29" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="44">
+        <v>0</v>
+      </c>
       <c r="AL29" s="28"/>
       <c r="AM29" s="28"/>
       <c r="AN29" s="28"/>
@@ -5367,8 +5487,12 @@
       <c r="AG30" s="40"/>
       <c r="AH30" s="44"/>
       <c r="AI30" s="44"/>
-      <c r="AJ30" s="44"/>
-      <c r="AK30" s="44"/>
+      <c r="AJ30" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="44">
+        <v>0</v>
+      </c>
       <c r="AL30" s="44"/>
       <c r="AM30" s="44"/>
       <c r="AN30" s="44"/>
@@ -8435,7 +8559,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode" prompt="OpCode  6个二进制位" sqref="E1:J1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="K1:P1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位_x000a_" sqref="R2:U61" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="AH1:AR1048576 V1:AG1 V26:AG1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="V26:AG1048576 V1:AG1 AH1:AR1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号情况" prompt="为1时填1，其他不填！" sqref="V2:AG25" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP(十进制)" prompt="请输入当前指令的AluOp十进制编码，后续列会自动生成对应的二进制位，如不需要使用ALU可以输入&quot;X&quot;" sqref="Q2:Q25" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
   </dataValidations>
@@ -8453,7 +8577,7 @@
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH62" sqref="AH62"/>
+      <selection pane="bottomLeft" activeCell="AJ62" sqref="AJ62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8607,11 +8731,11 @@
       </c>
       <c r="AI1" s="34" t="str">
         <f>真值表!AJ1</f>
-        <v>XXX</v>
+        <v>R1_used</v>
       </c>
       <c r="AJ1" s="34" t="str">
         <f>真值表!AK1</f>
-        <v>XXX</v>
+        <v>R2_used</v>
       </c>
       <c r="AK1" s="34" t="str">
         <f>真值表!AL1</f>
@@ -8785,7 +8909,7 @@
       </c>
       <c r="AJ2" s="33" t="str">
         <f>IF(真值表!AK2=1,$P2&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AK2" s="33" t="str">
         <f>IF(真值表!AL2=1,$P2&amp;"+","")</f>
@@ -8959,7 +9083,7 @@
       </c>
       <c r="AJ3" s="57" t="str">
         <f>IF(真值表!AK3=1,$P3&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AK3" s="57" t="str">
         <f>IF(真值表!AL3=1,$P3&amp;"+","")</f>
@@ -9133,7 +9257,7 @@
       </c>
       <c r="AJ4" s="33" t="str">
         <f>IF(真值表!AK4=1,$P4&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AK4" s="33" t="str">
         <f>IF(真值表!AL4=1,$P4&amp;"+","")</f>
@@ -9303,11 +9427,11 @@
       </c>
       <c r="AI5" s="57" t="str">
         <f>IF(真值表!AJ5=1,$P5&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AJ5" s="57" t="str">
         <f>IF(真值表!AK5=1,$P5&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AK5" s="57" t="str">
         <f>IF(真值表!AL5=1,$P5&amp;"+","")</f>
@@ -9477,11 +9601,11 @@
       </c>
       <c r="AI6" s="33" t="str">
         <f>IF(真值表!AJ6=1,$P6&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AJ6" s="33" t="str">
         <f>IF(真值表!AK6=1,$P6&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AK6" s="33" t="str">
         <f>IF(真值表!AL6=1,$P6&amp;"+","")</f>
@@ -9651,11 +9775,11 @@
       </c>
       <c r="AI7" s="57" t="str">
         <f>IF(真值表!AJ7=1,$P7&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AJ7" s="57" t="str">
         <f>IF(真值表!AK7=1,$P7&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AK7" s="57" t="str">
         <f>IF(真值表!AL7=1,$P7&amp;"+","")</f>
@@ -9825,11 +9949,11 @@
       </c>
       <c r="AI8" s="33" t="str">
         <f>IF(真值表!AJ8=1,$P8&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AJ8" s="33" t="str">
         <f>IF(真值表!AK8=1,$P8&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AK8" s="33" t="str">
         <f>IF(真值表!AL8=1,$P8&amp;"+","")</f>
@@ -9999,11 +10123,11 @@
       </c>
       <c r="AI9" s="57" t="str">
         <f>IF(真值表!AJ9=1,$P9&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AJ9" s="57" t="str">
         <f>IF(真值表!AK9=1,$P9&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+</v>
       </c>
       <c r="AK9" s="57" t="str">
         <f>IF(真值表!AL9=1,$P9&amp;"+","")</f>
@@ -10173,11 +10297,11 @@
       </c>
       <c r="AI10" s="33" t="str">
         <f>IF(真值表!AJ10=1,$P10&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AJ10" s="33" t="str">
         <f>IF(真值表!AK10=1,$P10&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AK10" s="33" t="str">
         <f>IF(真值表!AL10=1,$P10&amp;"+","")</f>
@@ -10347,11 +10471,11 @@
       </c>
       <c r="AI11" s="57" t="str">
         <f>IF(真值表!AJ11=1,$P11&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AJ11" s="57" t="str">
         <f>IF(真值表!AK11=1,$P11&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AK11" s="57" t="str">
         <f>IF(真值表!AL11=1,$P11&amp;"+","")</f>
@@ -10521,11 +10645,11 @@
       </c>
       <c r="AI12" s="33" t="str">
         <f>IF(真值表!AJ12=1,$P12&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AJ12" s="33" t="str">
         <f>IF(真值表!AK12=1,$P12&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+</v>
       </c>
       <c r="AK12" s="33" t="str">
         <f>IF(真值表!AL12=1,$P12&amp;"+","")</f>
@@ -10695,7 +10819,7 @@
       </c>
       <c r="AI13" s="57" t="str">
         <f>IF(真值表!AJ13=1,$P13&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AJ13" s="57" t="str">
         <f>IF(真值表!AK13=1,$P13&amp;"+","")</f>
@@ -10869,11 +10993,11 @@
       </c>
       <c r="AI14" s="33" t="str">
         <f>IF(真值表!AJ14=1,$P14&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AJ14" s="33" t="str">
         <f>IF(真值表!AK14=1,$P14&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+</v>
       </c>
       <c r="AK14" s="33" t="str">
         <f>IF(真值表!AL14=1,$P14&amp;"+","")</f>
@@ -11391,11 +11515,11 @@
       </c>
       <c r="AI17" s="57" t="str">
         <f>IF(真值表!AJ17=1,$P17&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AJ17" s="57" t="str">
         <f>IF(真值表!AK17=1,$P17&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AK17" s="57" t="str">
         <f>IF(真值表!AL17=1,$P17&amp;"+","")</f>
@@ -11565,11 +11689,11 @@
       </c>
       <c r="AI18" s="33" t="str">
         <f>IF(真值表!AJ18=1,$P18&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AJ18" s="33" t="str">
         <f>IF(真值表!AK18=1,$P18&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AK18" s="33" t="str">
         <f>IF(真值表!AL18=1,$P18&amp;"+","")</f>
@@ -11739,7 +11863,7 @@
       </c>
       <c r="AI19" s="57" t="str">
         <f>IF(真值表!AJ19=1,$P19&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AJ19" s="57" t="str">
         <f>IF(真值表!AK19=1,$P19&amp;"+","")</f>
@@ -11913,7 +12037,7 @@
       </c>
       <c r="AI20" s="33" t="str">
         <f>IF(真值表!AJ20=1,$P20&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AJ20" s="33" t="str">
         <f>IF(真值表!AK20=1,$P20&amp;"+","")</f>
@@ -12087,7 +12211,7 @@
       </c>
       <c r="AI21" s="57" t="str">
         <f>IF(真值表!AJ21=1,$P21&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AJ21" s="57" t="str">
         <f>IF(真值表!AK21=1,$P21&amp;"+","")</f>
@@ -12261,7 +12385,7 @@
       </c>
       <c r="AI22" s="33" t="str">
         <f>IF(真值表!AJ22=1,$P22&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+</v>
       </c>
       <c r="AJ22" s="33" t="str">
         <f>IF(真值表!AK22=1,$P22&amp;"+","")</f>
@@ -12435,7 +12559,7 @@
       </c>
       <c r="AI23" s="57" t="str">
         <f>IF(真值表!AJ23=1,$P23&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+</v>
       </c>
       <c r="AJ23" s="57" t="str">
         <f>IF(真值表!AK23=1,$P23&amp;"+","")</f>
@@ -12609,7 +12733,7 @@
       </c>
       <c r="AI24" s="33" t="str">
         <f>IF(真值表!AJ24=1,$P24&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AJ24" s="33" t="str">
         <f>IF(真值表!AK24=1,$P24&amp;"+","")</f>
@@ -12783,11 +12907,11 @@
       </c>
       <c r="AI25" s="57" t="str">
         <f>IF(真值表!AJ25=1,$P25&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AJ25" s="57" t="str">
         <f>IF(真值表!AK25=1,$P25&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AK25" s="57" t="str">
         <f>IF(真值表!AL25=1,$P25&amp;"+","")</f>
@@ -12957,11 +13081,11 @@
       </c>
       <c r="AI26" s="33" t="str">
         <f>IF(真值表!AJ26=1,$P26&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AJ26" s="33" t="str">
         <f>IF(真值表!AK26=1,$P26&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+</v>
       </c>
       <c r="AK26" s="33" t="str">
         <f>IF(真值表!AL26=1,$P26&amp;"+","")</f>
@@ -13131,7 +13255,7 @@
       </c>
       <c r="AI27" s="57" t="str">
         <f>IF(真值表!AJ27=1,$P27&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AJ27" s="57" t="str">
         <f>IF(真值表!AK27=1,$P27&amp;"+","")</f>
@@ -13305,11 +13429,11 @@
       </c>
       <c r="AI28" s="33" t="str">
         <f>IF(真值表!AJ28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AJ28" s="33" t="str">
         <f>IF(真值表!AK28=1,$P28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AK28" s="33" t="str">
         <f>IF(真值表!AL28=1,$P28&amp;"+","")</f>
@@ -13479,7 +13603,7 @@
       </c>
       <c r="AI29" s="57" t="str">
         <f>IF(真值表!AJ29=1,$P29&amp;"+","")</f>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AJ29" s="57" t="str">
         <f>IF(真值表!AK29=1,$P29&amp;"+","")</f>
@@ -13653,7 +13777,7 @@
       </c>
       <c r="AI30" s="33" t="str">
         <f>IF(真值表!AJ30=1,$P30&amp;"+","")</f>
-        <v/>
+        <v>+</v>
       </c>
       <c r="AJ30" s="33" t="str">
         <f>IF(真值表!AK30=1,$P30&amp;"+","")</f>
@@ -19106,7 +19230,7 @@
         <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp; OP0</v>
       </c>
       <c r="R62" s="39" t="str">
-        <f t="shared" ref="Q62:AQ62" si="1">IF(LEN(R63)&gt;1,LEFT(R63,LEN(R63)-1),"")</f>
+        <f t="shared" ref="R62:AQ62" si="1">IF(LEN(R63)&gt;1,LEFT(R63,LEN(R63)-1),"")</f>
         <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0</v>
       </c>
       <c r="S62" s="39" t="str">
@@ -19175,11 +19299,11 @@
       </c>
       <c r="AI62" s="41" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp; OP0+</v>
       </c>
       <c r="AJ62" s="41" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0</v>
       </c>
       <c r="AK62" s="41" t="str">
         <f t="shared" si="1"/>
@@ -19286,11 +19410,11 @@
       </c>
       <c r="AI63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp;~OP1&amp; OP0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp;~OP0+~OP5&amp;~OP4&amp; OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp; OP1&amp; OP0++</v>
       </c>
       <c r="AJ63" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp;~F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp; F3&amp;~F2&amp; F1&amp; F0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp;~F5&amp;~F4&amp; F3&amp; F2&amp;~F1&amp;~F0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp;~OP0+~OP5&amp;~OP4&amp;~OP3&amp; OP2&amp;~OP1&amp; OP0+ OP5&amp;~OP4&amp; OP3&amp;~OP2&amp; OP1&amp; OP0+~OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0&amp; F5&amp;~F4&amp;~F3&amp; F2&amp; F1&amp;~F0+ OP5&amp;~OP4&amp;~OP3&amp;~OP2&amp;~OP1&amp;~OP0+</v>
       </c>
       <c r="AK63" t="str">
         <f t="shared" si="2"/>
